--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2223409.059676516</v>
+        <v>-2225013.477602848</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635667</v>
+        <v>8983154.091635672</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660929</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232953</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>239.1552126763096</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274267</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.655283302129</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014333</v>
+        <v>83.09443458014337</v>
       </c>
       <c r="U11" t="n">
         <v>123.3341395078953</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.36554271716668</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247962</v>
+        <v>38.74486795247967</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092802</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725108</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801323</v>
+        <v>42.83650351247994</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599616</v>
+        <v>17.2808966959962</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577307</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
         <v>38.00095315743243</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307222</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204917</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U12" t="n">
-        <v>208.8530618737155</v>
+        <v>98.05485807843941</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>77.9846695060898</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991664</v>
+        <v>77.89438007991669</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454958</v>
+        <v>67.40599250529388</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540124016</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082464</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918145</v>
+        <v>18.6456469491815</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554353</v>
+        <v>17.63273232554357</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219386</v>
+        <v>38.95117859219391</v>
       </c>
       <c r="H13" t="n">
-        <v>45.44058872651171</v>
+        <v>23.31201683403479</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015229</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569133</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
         <v>124.3493276264403</v>
@@ -1591,10 +1591,10 @@
         <v>158.7346826392033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164948</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470712</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>181.8243831135666</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443237</v>
+        <v>43.62073620015034</v>
       </c>
       <c r="G14" t="n">
         <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274267</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212894</v>
+        <v>17.655283302129</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014337</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
         <v>199.9639427727472</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247962</v>
+        <v>38.74486795247967</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092802</v>
+        <v>44.92018329092807</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725108</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801323</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599616</v>
+        <v>17.2808966959962</v>
       </c>
       <c r="G15" t="n">
-        <v>29.07327648289807</v>
+        <v>118.8606390228523</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843937</v>
+        <v>98.05485807843941</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520376</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>77.9846695060898</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>77.89438007991669</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.37940243765755</v>
+        <v>52.04366448454962</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540124016</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082464</v>
+        <v>20.82715732082468</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918145</v>
+        <v>18.6456469491815</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554353</v>
+        <v>17.63273232554357</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219386</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403474</v>
+        <v>23.31201683403479</v>
       </c>
       <c r="I16" t="n">
-        <v>117.8149057650245</v>
+        <v>15.36232802074425</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015229</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569133</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
         <v>124.3493276264403</v>
@@ -1828,10 +1828,10 @@
         <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164948</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470712</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636091</v>
+        <v>111.7545725636089</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761413</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774058</v>
+        <v>67.97353966774044</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148208966</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306089</v>
       </c>
       <c r="W17" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213952</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7.935466117707428</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>55.76921636023661</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.23161123097661</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4665465410767</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.879185747056169</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747827</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.20917426675399</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>43.59452927951699</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636091</v>
+        <v>111.7545725636099</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774043</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148208966</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306089</v>
       </c>
       <c r="W20" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213952</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.475382974551593</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1478331994369</v>
+        <v>81.64480880064424</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>52.53481491073671</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845594</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.1338063240745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.7394942895816</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.879185747056169</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747827</v>
+        <v>183.9128266393683</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754133</v>
+        <v>9.20917426675399</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>43.59452927951699</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636091</v>
+        <v>111.7545725636089</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774043</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148208978</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306089</v>
       </c>
       <c r="W23" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213952</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>20.55094855793636</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8431737758271</v>
+        <v>180.6047817651537</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,22 +2482,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>74.93271234603519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I25" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747812</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266754133</v>
+        <v>9.20917426675399</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951699</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>75.10653671004511</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735299</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983051</v>
+        <v>30.30344563983032</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784489</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225114</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894168</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D28" t="n">
-        <v>33.4753196585262</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688302</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324509</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989543</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173631</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338381</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.88191846596942</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785381</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U28" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X28" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735299</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983051</v>
+        <v>30.30344563983032</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784489</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225114</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894168</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D31" t="n">
-        <v>33.4753196585262</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688302</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324509</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989543</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173631</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338381</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.88191846596942</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785381</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U31" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X31" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735299</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983049</v>
+        <v>30.30344563983033</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784486</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455968</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225112</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894165</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852617</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688299</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324506</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G34" t="n">
-        <v>51.5993409298954</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173628</v>
+        <v>35.96017917173612</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338353</v>
+        <v>2.674752405338197</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969392</v>
+        <v>5.881918465969235</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785378</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U34" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X34" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111307</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199119</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808662</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246456</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293312</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V35" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="36">
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>36.42852112821777</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>101.2717262462133</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.0353735251519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7394942895816</v>
+        <v>90.51096043766657</v>
       </c>
       <c r="H37" t="n">
         <v>151.1003325314225</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>4.879185747056169</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990729126</v>
+        <v>2.640846990728899</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220225</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424113</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687279</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D38" t="n">
         <v>134.7255535683329</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246442</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293296</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3582,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>64.98153130016492</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7.475382974551593</v>
       </c>
       <c r="S39" t="n">
         <v>143.9556929504599</v>
@@ -3636,16 +3636,16 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.88568572347698</v>
       </c>
       <c r="V39" t="n">
-        <v>12.84309909707525</v>
+        <v>12.84309909707517</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>150.2459194021584</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>110.5515516797518</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728984</v>
+        <v>2.640846990728899</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220211</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147799</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424099</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X40" t="n">
-        <v>125.1213328246169</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D41" t="n">
         <v>134.7255535683329</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246442</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293296</v>
+        <v>31.16496715293289</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W41" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X41" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.585693282995</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7.475382974551593</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
         <v>194.1478331994369</v>
@@ -3876,7 +3876,7 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707525</v>
+        <v>12.84309909707517</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>151.5996829226212</v>
       </c>
     </row>
     <row r="43">
@@ -3901,25 +3901,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>92.33255073269237</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.879185747056169</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728984</v>
+        <v>2.640846990728899</v>
       </c>
       <c r="U43" t="n">
         <v>286.2507665345522</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>241.7139739662483</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687137</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D44" t="n">
         <v>134.7255535683329</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199118</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246442</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293296</v>
+        <v>31.16496715293289</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W44" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X44" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>22.83031375088536</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>143.9556929504599</v>
@@ -4110,19 +4110,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723477065</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707517</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>31.7374951085695</v>
       </c>
       <c r="X45" t="n">
-        <v>201.0081666402707</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.09815913629125</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.720132211736246</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2507665345522</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147799</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687137</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>699.3862554488528</v>
+        <v>736.968237693766</v>
       </c>
       <c r="C11" t="n">
-        <v>699.3862554488528</v>
+        <v>736.968237693766</v>
       </c>
       <c r="D11" t="n">
-        <v>470.1996636071404</v>
+        <v>736.968237693766</v>
       </c>
       <c r="E11" t="n">
-        <v>213.4905177739343</v>
+        <v>736.968237693766</v>
       </c>
       <c r="F11" t="n">
-        <v>213.4905177739343</v>
+        <v>455.0614396691966</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739343</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H11" t="n">
         <v>28.52719148360423</v>
@@ -5039,13 +5039,13 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838411</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M11" t="n">
         <v>676.5957134965339</v>
@@ -5060,31 +5060,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.359574180212</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T11" t="n">
-        <v>1342.425801877037</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U11" t="n">
-        <v>1217.845862980173</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V11" t="n">
-        <v>1015.86208240164</v>
+        <v>998.0284629045398</v>
       </c>
       <c r="W11" t="n">
-        <v>1015.86208240164</v>
+        <v>998.0284629045398</v>
       </c>
       <c r="X11" t="n">
-        <v>1015.86208240164</v>
+        <v>998.0284629045398</v>
       </c>
       <c r="Y11" t="n">
-        <v>956.9069887479365</v>
+        <v>736.968237693766</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316.9779982458122</v>
+        <v>557.9744825818356</v>
       </c>
       <c r="C12" t="n">
-        <v>271.6040757297233</v>
+        <v>383.5214533007086</v>
       </c>
       <c r="D12" t="n">
-        <v>122.6696660684721</v>
+        <v>363.6661504044953</v>
       </c>
       <c r="E12" t="n">
-        <v>92.51131782805464</v>
+        <v>320.3969549373439</v>
       </c>
       <c r="F12" t="n">
-        <v>75.05586661997771</v>
+        <v>302.9415037292669</v>
       </c>
       <c r="G12" t="n">
-        <v>66.9119926527279</v>
+        <v>165.718522996979</v>
       </c>
       <c r="H12" t="n">
         <v>66.9119926527279</v>
@@ -5118,16 +5118,16 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197359</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K12" t="n">
-        <v>175.1891571239597</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L12" t="n">
-        <v>528.2131517335621</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M12" t="n">
-        <v>761.9510481841605</v>
+        <v>663.2599415511338</v>
       </c>
       <c r="N12" t="n">
         <v>1016.283936160736</v>
@@ -5139,31 +5139,31 @@
         <v>1376.296732666069</v>
       </c>
       <c r="Q12" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R12" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S12" t="n">
-        <v>1410.028890086199</v>
+        <v>1280.949783321161</v>
       </c>
       <c r="T12" t="n">
-        <v>1342.999074427564</v>
+        <v>1084.840860897487</v>
       </c>
       <c r="U12" t="n">
-        <v>1132.036385666235</v>
+        <v>985.7955497071445</v>
       </c>
       <c r="V12" t="n">
-        <v>896.8842774344923</v>
+        <v>879.7225482404398</v>
       </c>
       <c r="W12" t="n">
-        <v>642.6469207062908</v>
+        <v>754.5642982772762</v>
       </c>
       <c r="X12" t="n">
-        <v>434.795420500758</v>
+        <v>675.7919048367814</v>
       </c>
       <c r="Y12" t="n">
-        <v>356.1142285008422</v>
+        <v>597.1107128368656</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3108372568318</v>
+        <v>318.0378512011864</v>
       </c>
       <c r="C13" t="n">
-        <v>171.453761093963</v>
+        <v>278.1807750383175</v>
       </c>
       <c r="D13" t="n">
-        <v>150.4162284466654</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E13" t="n">
-        <v>131.5822416293104</v>
+        <v>109.2301488086267</v>
       </c>
       <c r="F13" t="n">
-        <v>113.7714008964382</v>
+        <v>91.41930807575443</v>
       </c>
       <c r="G13" t="n">
-        <v>74.42677605583829</v>
+        <v>52.07468323515452</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360423</v>
@@ -5203,13 +5203,13 @@
         <v>150.4262071982334</v>
       </c>
       <c r="L13" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M13" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N13" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O13" t="n">
         <v>1028.092834557911</v>
@@ -5221,28 +5221,28 @@
         <v>1193.692862342906</v>
       </c>
       <c r="R13" t="n">
-        <v>1071.448345347294</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="S13" t="n">
-        <v>996.2783345087564</v>
+        <v>1118.522851504368</v>
       </c>
       <c r="T13" t="n">
-        <v>900.5106381999774</v>
+        <v>1022.755155195589</v>
       </c>
       <c r="U13" t="n">
-        <v>740.4475565462759</v>
+        <v>862.6920735418876</v>
       </c>
       <c r="V13" t="n">
-        <v>614.8421751054271</v>
+        <v>737.0866921010387</v>
       </c>
       <c r="W13" t="n">
-        <v>454.5041118335046</v>
+        <v>576.7486288291161</v>
       </c>
       <c r="X13" t="n">
-        <v>355.5936677005254</v>
+        <v>477.8381846961369</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.8801953220334</v>
+        <v>386.1247123176448</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1206.542174104579</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="C14" t="n">
-        <v>966.6587639292054</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="D14" t="n">
-        <v>782.997770885199</v>
+        <v>545.1523225577512</v>
       </c>
       <c r="E14" t="n">
-        <v>782.997770885199</v>
+        <v>545.1523225577512</v>
       </c>
       <c r="F14" t="n">
         <v>501.0909728606296</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739343</v>
+        <v>213.4905177739342</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K14" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L14" t="n">
         <v>419.6428849838412</v>
@@ -5300,28 +5300,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.525954683112</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T14" t="n">
-        <v>1408.525954683112</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U14" t="n">
-        <v>1408.525954683112</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V14" t="n">
-        <v>1206.542174104579</v>
+        <v>998.0284629045398</v>
       </c>
       <c r="W14" t="n">
-        <v>1206.542174104579</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="X14" t="n">
-        <v>1206.542174104579</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1206.542174104579</v>
+        <v>774.3389143994636</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>299.8162690517601</v>
+        <v>428.8953758167972</v>
       </c>
       <c r="C15" t="n">
-        <v>254.4423465356711</v>
+        <v>383.5214533007083</v>
       </c>
       <c r="D15" t="n">
-        <v>105.5079368744199</v>
+        <v>363.6661504044951</v>
       </c>
       <c r="E15" t="n">
-        <v>75.34958863400246</v>
+        <v>204.4286953990396</v>
       </c>
       <c r="F15" t="n">
-        <v>57.89413742592552</v>
+        <v>186.9732441909626</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360423</v>
+        <v>66.9119926527279</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>66.9119926527279</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197359</v>
+        <v>167.4114027489783</v>
       </c>
       <c r="K15" t="n">
-        <v>144.7567744385589</v>
+        <v>269.5868994255636</v>
       </c>
       <c r="L15" t="n">
-        <v>497.7807690481613</v>
+        <v>453.2970051018454</v>
       </c>
       <c r="M15" t="n">
-        <v>731.5186654987597</v>
+        <v>687.0349015524438</v>
       </c>
       <c r="N15" t="n">
-        <v>985.8515534753351</v>
+        <v>941.3677895290191</v>
       </c>
       <c r="O15" t="n">
-        <v>1196.29666281239</v>
+        <v>1226.729045497791</v>
       </c>
       <c r="P15" t="n">
         <v>1376.296732666069</v>
       </c>
       <c r="Q15" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R15" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S15" t="n">
         <v>1280.949783321161</v>
       </c>
       <c r="T15" t="n">
-        <v>1084.840860897488</v>
+        <v>1084.840860897487</v>
       </c>
       <c r="U15" t="n">
-        <v>985.7955497071448</v>
+        <v>985.7955497071442</v>
       </c>
       <c r="V15" t="n">
-        <v>879.7225482404402</v>
+        <v>750.6434414754015</v>
       </c>
       <c r="W15" t="n">
-        <v>754.5642982772767</v>
+        <v>625.4851915122379</v>
       </c>
       <c r="X15" t="n">
-        <v>546.7127980717439</v>
+        <v>546.7127980717431</v>
       </c>
       <c r="Y15" t="n">
-        <v>338.95249930679</v>
+        <v>468.0316060718272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.9636997543546</v>
+        <v>333.5553542524432</v>
       </c>
       <c r="C16" t="n">
-        <v>268.1066235914859</v>
+        <v>293.6982780895743</v>
       </c>
       <c r="D16" t="n">
-        <v>247.0690909441882</v>
+        <v>272.6607454422767</v>
       </c>
       <c r="E16" t="n">
-        <v>228.2351041268332</v>
+        <v>253.8267586249216</v>
       </c>
       <c r="F16" t="n">
-        <v>210.424263393961</v>
+        <v>236.0159178920493</v>
       </c>
       <c r="G16" t="n">
-        <v>171.0796385533611</v>
+        <v>67.59218628641133</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5321468018109</v>
+        <v>44.04469453486104</v>
       </c>
       <c r="I16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L16" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M16" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N16" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O16" t="n">
         <v>1028.092834557911</v>
@@ -5467,19 +5467,19 @@
         <v>1022.755155195589</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418877</v>
+        <v>862.6920735418876</v>
       </c>
       <c r="V16" t="n">
-        <v>737.0866921010389</v>
+        <v>737.0866921010387</v>
       </c>
       <c r="W16" t="n">
-        <v>576.7486288291163</v>
+        <v>576.7486288291161</v>
       </c>
       <c r="X16" t="n">
-        <v>477.8381846961371</v>
+        <v>477.8381846961369</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.1247123176451</v>
+        <v>386.1247123176448</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646655</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010961</v>
+        <v>687.377582501096</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711878</v>
+        <v>574.494175871188</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497859</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213007</v>
+        <v>97.18733256212992</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K17" t="n">
         <v>217.1760266634139</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838412</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M17" t="n">
         <v>676.5957134965338</v>
@@ -5546,19 +5546,19 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U17" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X17" t="n">
         <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.175355551945</v>
+        <v>952.1753555519446</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>572.7285672268499</v>
+        <v>719.2631251999651</v>
       </c>
       <c r="C18" t="n">
-        <v>572.7285672268499</v>
+        <v>719.2631251999651</v>
       </c>
       <c r="D18" t="n">
-        <v>423.7941575655987</v>
+        <v>570.3287155387138</v>
       </c>
       <c r="E18" t="n">
-        <v>264.5567025601432</v>
+        <v>411.0912605332583</v>
       </c>
       <c r="F18" t="n">
         <v>264.5567025601432</v>
@@ -5586,25 +5586,25 @@
         <v>127.3337218278553</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J18" t="n">
-        <v>123.0414512216908</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K18" t="n">
-        <v>225.2169478982761</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L18" t="n">
-        <v>408.927053574558</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M18" t="n">
-        <v>761.9510481841603</v>
+        <v>681.4908747244428</v>
       </c>
       <c r="N18" t="n">
-        <v>1016.283936160736</v>
+        <v>935.8237627010183</v>
       </c>
       <c r="O18" t="n">
         <v>1226.729045497791</v>
@@ -5616,28 +5616,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R18" t="n">
-        <v>1418.808682286725</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S18" t="n">
-        <v>1410.793059945606</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T18" t="n">
-        <v>1410.793059945606</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U18" t="n">
-        <v>1410.793059945606</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="V18" t="n">
-        <v>1410.793059945606</v>
+        <v>1191.207465948469</v>
       </c>
       <c r="W18" t="n">
-        <v>1156.555703217405</v>
+        <v>1134.874924170452</v>
       </c>
       <c r="X18" t="n">
-        <v>948.7042030118719</v>
+        <v>927.0234239649189</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.943904246918</v>
+        <v>719.2631251999651</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.7286700511141</v>
+        <v>623.2240487369862</v>
       </c>
       <c r="C19" t="n">
-        <v>349.7924871232073</v>
+        <v>454.2878658090793</v>
       </c>
       <c r="D19" t="n">
-        <v>349.7924871232073</v>
+        <v>304.1712263967436</v>
       </c>
       <c r="E19" t="n">
-        <v>201.8793935408141</v>
+        <v>175.4171389815146</v>
       </c>
       <c r="F19" t="n">
-        <v>201.8793935408141</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K19" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L19" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M19" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N19" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O19" t="n">
         <v>1028.092834557911</v>
@@ -5704,19 +5704,19 @@
         <v>1193.692862342906</v>
       </c>
       <c r="U19" t="n">
-        <v>1149.932965901009</v>
+        <v>904.5506739241662</v>
       </c>
       <c r="V19" t="n">
         <v>895.2484776951218</v>
       </c>
       <c r="W19" t="n">
-        <v>605.8313076581612</v>
+        <v>851.2135996350036</v>
       </c>
       <c r="X19" t="n">
-        <v>605.8313076581612</v>
+        <v>623.2240487369862</v>
       </c>
       <c r="Y19" t="n">
-        <v>605.8313076581612</v>
+        <v>623.2240487369862</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646652</v>
+        <v>810.9578074646661</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010961</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711878</v>
+        <v>574.4941758711877</v>
       </c>
       <c r="E20" t="n">
         <v>434.0882152497859</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370208</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256212991</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K20" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838412</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M20" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5786,16 +5786,16 @@
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519444</v>
+        <v>952.1753555519454</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.1815965079769</v>
+        <v>598.2471868467258</v>
       </c>
       <c r="C21" t="n">
-        <v>572.7285672268499</v>
+        <v>423.7941575655987</v>
       </c>
       <c r="D21" t="n">
         <v>423.7941575655987</v>
@@ -5823,25 +5823,25 @@
         <v>127.3337218278553</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385589</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L21" t="n">
-        <v>408.927053574558</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M21" t="n">
-        <v>761.9510481841603</v>
+        <v>562.204776565439</v>
       </c>
       <c r="N21" t="n">
-        <v>1016.283936160736</v>
+        <v>873.7050508881886</v>
       </c>
       <c r="O21" t="n">
         <v>1226.729045497791</v>
@@ -5856,25 +5856,25 @@
         <v>1418.808682286725</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.808682286725</v>
+        <v>1273.398891427674</v>
       </c>
       <c r="T21" t="n">
-        <v>1222.699759863051</v>
+        <v>1190.92938758864</v>
       </c>
       <c r="U21" t="n">
-        <v>1222.699759863051</v>
+        <v>1190.92938758864</v>
       </c>
       <c r="V21" t="n">
-        <v>1169.634290256246</v>
+        <v>1190.92938758864</v>
       </c>
       <c r="W21" t="n">
-        <v>915.3969335280449</v>
+        <v>1182.074322837281</v>
       </c>
       <c r="X21" t="n">
-        <v>915.3969335280449</v>
+        <v>974.2228226317477</v>
       </c>
       <c r="Y21" t="n">
-        <v>915.3969335280449</v>
+        <v>766.4625238667938</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.5059920574025</v>
+        <v>343.8408705871526</v>
       </c>
       <c r="C22" t="n">
-        <v>354.5059920574025</v>
+        <v>343.8408705871526</v>
       </c>
       <c r="D22" t="n">
-        <v>354.5059920574025</v>
+        <v>343.8408705871526</v>
       </c>
       <c r="E22" t="n">
-        <v>354.5059920574025</v>
+        <v>343.8408705871526</v>
       </c>
       <c r="F22" t="n">
-        <v>354.5059920574025</v>
+        <v>196.9509230892422</v>
       </c>
       <c r="G22" t="n">
-        <v>186.0822604517645</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K22" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L22" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M22" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N22" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O22" t="n">
         <v>1028.092834557911</v>
@@ -5932,28 +5932,28 @@
         <v>1193.692862342906</v>
       </c>
       <c r="R22" t="n">
-        <v>1071.448345347294</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="S22" t="n">
-        <v>1071.448345347294</v>
+        <v>989.44374473933</v>
       </c>
       <c r="T22" t="n">
-        <v>1071.448345347294</v>
+        <v>764.5969416655128</v>
       </c>
       <c r="U22" t="n">
-        <v>1027.688448905397</v>
+        <v>578.8264097065548</v>
       </c>
       <c r="V22" t="n">
-        <v>1018.386252676352</v>
+        <v>569.5242134775104</v>
       </c>
       <c r="W22" t="n">
-        <v>728.9690826393917</v>
+        <v>525.4893354173922</v>
       </c>
       <c r="X22" t="n">
-        <v>728.9690826393917</v>
+        <v>525.4893354173922</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.1765034958615</v>
+        <v>525.4893354173922</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646655</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010962</v>
+        <v>687.377582501096</v>
       </c>
       <c r="D23" t="n">
         <v>574.494175871188</v>
       </c>
       <c r="E23" t="n">
-        <v>434.088215249786</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370208</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213007</v>
+        <v>97.1873325621299</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006782</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634141</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838413</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965341</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893068</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O23" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X23" t="n">
         <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519449</v>
+        <v>952.1753555519444</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>362.2176757701868</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="C24" t="n">
-        <v>187.7646464890597</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="D24" t="n">
-        <v>187.7646464890597</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="E24" t="n">
-        <v>28.52719148360424</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360424</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360424</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J24" t="n">
-        <v>42.5812777619736</v>
+        <v>167.4114027489783</v>
       </c>
       <c r="K24" t="n">
-        <v>144.7567744385589</v>
+        <v>269.5868994255636</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148408</v>
+        <v>453.2970051018454</v>
       </c>
       <c r="M24" t="n">
-        <v>562.2047765654393</v>
+        <v>761.9510481841598</v>
       </c>
       <c r="N24" t="n">
-        <v>915.2287711750416</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O24" t="n">
-        <v>1125.673880512097</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P24" t="n">
-        <v>1275.241567680375</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q24" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R24" t="n">
-        <v>1426.359574180212</v>
+        <v>1418.808682286724</v>
       </c>
       <c r="S24" t="n">
-        <v>1280.949783321161</v>
+        <v>1273.398891427674</v>
       </c>
       <c r="T24" t="n">
-        <v>1260.191249424256</v>
+        <v>1077.289969004</v>
       </c>
       <c r="U24" t="n">
-        <v>1032.066831468875</v>
+        <v>894.8608965139456</v>
       </c>
       <c r="V24" t="n">
-        <v>1032.066831468875</v>
+        <v>894.8608965139456</v>
       </c>
       <c r="W24" t="n">
-        <v>777.8294747406735</v>
+        <v>640.623539785744</v>
       </c>
       <c r="X24" t="n">
-        <v>569.9779745351407</v>
+        <v>432.7720395802112</v>
       </c>
       <c r="Y24" t="n">
-        <v>362.2176757701868</v>
+        <v>432.7720395802112</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.6983091780301</v>
+        <v>799.9381238723106</v>
       </c>
       <c r="C25" t="n">
-        <v>541.7621262501232</v>
+        <v>631.0019409444037</v>
       </c>
       <c r="D25" t="n">
-        <v>391.6454868377874</v>
+        <v>480.885301532068</v>
       </c>
       <c r="E25" t="n">
-        <v>391.6454868377874</v>
+        <v>332.9722079496748</v>
       </c>
       <c r="F25" t="n">
-        <v>315.9558784074488</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="G25" t="n">
-        <v>147.5321468018109</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5321468018109</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="K25" t="n">
-        <v>150.4262071982334</v>
+        <v>150.4262071982333</v>
       </c>
       <c r="L25" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M25" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N25" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O25" t="n">
         <v>1028.092834557911</v>
@@ -6172,25 +6172,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S25" t="n">
-        <v>989.44374473933</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="T25" t="n">
-        <v>989.44374473933</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="U25" t="n">
-        <v>945.6838482974327</v>
+        <v>1149.932965901009</v>
       </c>
       <c r="V25" t="n">
-        <v>936.3816520683881</v>
+        <v>1140.630769671964</v>
       </c>
       <c r="W25" t="n">
-        <v>892.3467740082698</v>
+        <v>1096.595891611846</v>
       </c>
       <c r="X25" t="n">
-        <v>892.3467740082698</v>
+        <v>1020.730703015841</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.3467740082698</v>
+        <v>799.9381238723106</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607693</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879085</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.020164484139</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977011</v>
+        <v>855.5350970976995</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198964</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799682</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J26" t="n">
-        <v>220.6324416144149</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K26" t="n">
-        <v>354.0893504377611</v>
+        <v>572.2895466616671</v>
       </c>
       <c r="L26" t="n">
-        <v>556.5562087581883</v>
+        <v>1188.24100738704</v>
       </c>
       <c r="M26" t="n">
-        <v>1258.527435428785</v>
+        <v>1445.193835899733</v>
       </c>
       <c r="N26" t="n">
-        <v>1957.225292889422</v>
+        <v>2124.025631586232</v>
       </c>
       <c r="O26" t="n">
-        <v>2571.798229120232</v>
+        <v>2361.606388366924</v>
       </c>
       <c r="P26" t="n">
-        <v>3058.647628638294</v>
+        <v>2848.455787884985</v>
       </c>
       <c r="Q26" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.228110769875</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913467</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463369</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331603</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273293</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224017</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.93866446001</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.3105172030158</v>
+        <v>966.3105172030156</v>
       </c>
       <c r="C27" t="n">
-        <v>791.8574879218888</v>
+        <v>791.8574879218886</v>
       </c>
       <c r="D27" t="n">
-        <v>642.9230782606376</v>
+        <v>642.9230782606373</v>
       </c>
       <c r="E27" t="n">
-        <v>483.685623255182</v>
+        <v>483.6856232551819</v>
       </c>
       <c r="F27" t="n">
-        <v>337.151065282067</v>
+        <v>337.1510652820669</v>
       </c>
       <c r="G27" t="n">
         <v>199.928084549779</v>
@@ -6300,19 +6300,19 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477362</v>
+        <v>201.6209643017783</v>
       </c>
       <c r="K27" t="n">
-        <v>178.966335991359</v>
+        <v>303.7964609783637</v>
       </c>
       <c r="L27" t="n">
-        <v>552.3248686884569</v>
+        <v>487.5065666546456</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.110778251555</v>
+        <v>772.5618276514373</v>
       </c>
       <c r="N27" t="n">
         <v>1501.443666228131</v>
@@ -6336,7 +6336,7 @@
         <v>2267.651536108895</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.527118153515</v>
+        <v>2039.527118153514</v>
       </c>
       <c r="V27" t="n">
         <v>1804.375009921772</v>
@@ -6345,7 +6345,7 @@
         <v>1550.13765319357</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.286152988038</v>
+        <v>1342.286152988037</v>
       </c>
       <c r="Y27" t="n">
         <v>1134.525854223084</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147538</v>
+        <v>302.5256054147525</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986511</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981196</v>
+        <v>216.0791534981186</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275307</v>
+        <v>184.4692451275299</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414246</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280666</v>
+        <v>65.43852314280643</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K28" t="n">
-        <v>184.6357687510334</v>
+        <v>227.5451625702192</v>
       </c>
       <c r="L28" t="n">
-        <v>396.150975106503</v>
+        <v>439.0603689256889</v>
       </c>
       <c r="M28" t="n">
-        <v>629.553226682568</v>
+        <v>672.4626205017539</v>
       </c>
       <c r="N28" t="n">
-        <v>862.8403108176906</v>
+        <v>905.7497046368765</v>
       </c>
       <c r="O28" t="n">
-        <v>1105.2117899299</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P28" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.36537980922</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762847</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511283</v>
+        <v>584.0466446511265</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649152</v>
+        <v>472.3602789649135</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331893</v>
+        <v>367.8708850331878</v>
       </c>
     </row>
     <row r="29">
@@ -6443,70 +6443,70 @@
         <v>1366.982677879088</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484142</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977017</v>
+        <v>855.5350970977014</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198984</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799682</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J29" t="n">
         <v>117.9286793928678</v>
       </c>
       <c r="K29" t="n">
-        <v>572.2895466616671</v>
+        <v>400.853256378667</v>
       </c>
       <c r="L29" t="n">
-        <v>791.3827661627868</v>
+        <v>1016.80471710404</v>
       </c>
       <c r="M29" t="n">
-        <v>1048.33559467548</v>
+        <v>1718.775943774637</v>
       </c>
       <c r="N29" t="n">
-        <v>1747.033452136117</v>
+        <v>2417.473801235274</v>
       </c>
       <c r="O29" t="n">
-        <v>2361.606388366926</v>
+        <v>2655.054558015966</v>
       </c>
       <c r="P29" t="n">
-        <v>2848.455787884988</v>
+        <v>2823.32323644426</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.837651820213</v>
+        <v>3111.705100379485</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463373</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.3105172030158</v>
+        <v>966.3105172030156</v>
       </c>
       <c r="C30" t="n">
-        <v>791.8574879218888</v>
+        <v>791.8574879218886</v>
       </c>
       <c r="D30" t="n">
-        <v>642.9230782606376</v>
+        <v>642.9230782606373</v>
       </c>
       <c r="E30" t="n">
-        <v>483.685623255182</v>
+        <v>483.6856232551819</v>
       </c>
       <c r="F30" t="n">
-        <v>337.151065282067</v>
+        <v>337.1510652820669</v>
       </c>
       <c r="G30" t="n">
         <v>199.928084549779</v>
@@ -6537,19 +6537,19 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477362</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K30" t="n">
-        <v>178.966335991359</v>
+        <v>355.1138255245569</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676409</v>
+        <v>538.8239312008388</v>
       </c>
       <c r="M30" t="n">
-        <v>1057.462351230739</v>
+        <v>772.5618276514373</v>
       </c>
       <c r="N30" t="n">
         <v>1501.443666228131</v>
@@ -6573,7 +6573,7 @@
         <v>2267.651536108895</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.527118153515</v>
+        <v>2039.527118153514</v>
       </c>
       <c r="V30" t="n">
         <v>1804.375009921772</v>
@@ -6582,7 +6582,7 @@
         <v>1550.13765319357</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.286152988038</v>
+        <v>1342.286152988037</v>
       </c>
       <c r="Y30" t="n">
         <v>1134.525854223084</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147538</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986511</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981196</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275307</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414246</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280666</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J31" t="n">
-        <v>105.646146855593</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="K31" t="n">
-        <v>227.5451625702222</v>
+        <v>227.5451625702192</v>
       </c>
       <c r="L31" t="n">
-        <v>439.0603689256918</v>
+        <v>439.0603689256889</v>
       </c>
       <c r="M31" t="n">
-        <v>672.4626205017569</v>
+        <v>672.4626205017539</v>
       </c>
       <c r="N31" t="n">
-        <v>905.7497046368794</v>
+        <v>905.7497046368765</v>
       </c>
       <c r="O31" t="n">
-        <v>1105.2117899299</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P31" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.36537980922</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762847</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511283</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649152</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331893</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="32">
@@ -6683,58 +6683,58 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977015</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198992</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799682</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J32" t="n">
         <v>117.9286793928678</v>
       </c>
       <c r="K32" t="n">
-        <v>251.3855882162141</v>
+        <v>251.385588216214</v>
       </c>
       <c r="L32" t="n">
         <v>867.3370489415872</v>
       </c>
       <c r="M32" t="n">
-        <v>1569.308275612184</v>
+        <v>1366.916315765246</v>
       </c>
       <c r="N32" t="n">
-        <v>2040.481621785158</v>
+        <v>2065.614173225883</v>
       </c>
       <c r="O32" t="n">
-        <v>2655.054558015968</v>
+        <v>2680.187109456692</v>
       </c>
       <c r="P32" t="n">
-        <v>2823.323236444262</v>
+        <v>2848.455787884986</v>
       </c>
       <c r="Q32" t="n">
-        <v>3111.705100379487</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W32" t="n">
         <v>2420.937384273296</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.3105172030158</v>
+        <v>966.3105172030156</v>
       </c>
       <c r="C33" t="n">
-        <v>791.8574879218888</v>
+        <v>791.8574879218886</v>
       </c>
       <c r="D33" t="n">
-        <v>642.9230782606376</v>
+        <v>642.9230782606373</v>
       </c>
       <c r="E33" t="n">
-        <v>483.685623255182</v>
+        <v>483.6856232551819</v>
       </c>
       <c r="F33" t="n">
-        <v>337.151065282067</v>
+        <v>337.1510652820669</v>
       </c>
       <c r="G33" t="n">
         <v>199.928084549779</v>
@@ -6774,28 +6774,28 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J33" t="n">
-        <v>201.6209643017783</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K33" t="n">
-        <v>303.7964609783637</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
-        <v>487.5065666546456</v>
+        <v>729.8083835180653</v>
       </c>
       <c r="M33" t="n">
-        <v>1182.292476217744</v>
+        <v>1424.594293081164</v>
       </c>
       <c r="N33" t="n">
-        <v>1911.174314794438</v>
+        <v>2153.476131657857</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.114097744195</v>
+        <v>2363.921240994912</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.681784912473</v>
+        <v>2566.658299770964</v>
       </c>
       <c r="Q33" t="n">
         <v>2616.721141285106</v>
@@ -6810,7 +6810,7 @@
         <v>2267.651536108895</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.527118153515</v>
+        <v>2039.527118153514</v>
       </c>
       <c r="V33" t="n">
         <v>1804.375009921772</v>
@@ -6819,7 +6819,7 @@
         <v>1550.13765319357</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.286152988038</v>
+        <v>1342.286152988037</v>
       </c>
       <c r="Y33" t="n">
         <v>1134.525854223084</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147537</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C34" t="n">
-        <v>249.892607698651</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981195</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275306</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414245</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280663</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="K34" t="n">
         <v>184.6357687510334</v>
@@ -6874,34 +6874,34 @@
         <v>1062.302396110711</v>
       </c>
       <c r="P34" t="n">
-        <v>1252.365379809223</v>
+        <v>1209.455985990034</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762846</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511282</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X34" t="n">
-        <v>472.360278964915</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331892</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291583</v>
+        <v>955.858244229157</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497063</v>
+        <v>809.0750081497051</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039153</v>
+        <v>672.9885904039144</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666299</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379821</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926361</v>
+        <v>89.40148790926355</v>
       </c>
       <c r="K35" t="n">
-        <v>315.5319626879955</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L35" t="n">
-        <v>517.9988210084227</v>
+        <v>425.325255053037</v>
       </c>
       <c r="M35" t="n">
-        <v>774.9516495211155</v>
+        <v>682.2780835657298</v>
       </c>
       <c r="N35" t="n">
-        <v>1040.676051813888</v>
+        <v>948.0024858585025</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029788</v>
+        <v>1185.583242639194</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458082</v>
+        <v>1607.155503017353</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077640002</v>
+        <v>1685.345526199273</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>466.7065761836336</v>
+        <v>345.8855715662149</v>
       </c>
       <c r="C36" t="n">
-        <v>292.2535469025066</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="D36" t="n">
-        <v>292.2535469025066</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="E36" t="n">
-        <v>133.0160918970511</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="F36" t="n">
-        <v>133.0160918970511</v>
+        <v>171.4325422850879</v>
       </c>
       <c r="G36" t="n">
-        <v>133.0160918970511</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116939</v>
+        <v>48.26364783116933</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077547</v>
+        <v>199.3829032121484</v>
       </c>
       <c r="L36" t="n">
-        <v>573.7824687236551</v>
+        <v>622.7262274280481</v>
       </c>
       <c r="M36" t="n">
-        <v>807.5203651742536</v>
+        <v>1046.069551643948</v>
       </c>
       <c r="N36" t="n">
-        <v>1087.504224741681</v>
+        <v>1300.402439620523</v>
       </c>
       <c r="O36" t="n">
-        <v>1510.847548957581</v>
+        <v>1510.847548957578</v>
       </c>
       <c r="P36" t="n">
-        <v>1660.415236125859</v>
+        <v>1660.415236125856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R36" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S36" t="n">
-        <v>1565.068286780951</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T36" t="n">
-        <v>1368.959364357278</v>
+        <v>1514.369155216325</v>
       </c>
       <c r="U36" t="n">
-        <v>1332.162878369179</v>
+        <v>1286.244737260944</v>
       </c>
       <c r="V36" t="n">
-        <v>1097.010770137436</v>
+        <v>1183.950064284971</v>
       </c>
       <c r="W36" t="n">
-        <v>842.7734134092345</v>
+        <v>929.7127075567696</v>
       </c>
       <c r="X36" t="n">
-        <v>634.9219132037017</v>
+        <v>721.8612073512368</v>
       </c>
       <c r="Y36" t="n">
-        <v>634.9219132037017</v>
+        <v>514.1009085862829</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>842.5429712532381</v>
+        <v>581.2195760789887</v>
       </c>
       <c r="C37" t="n">
-        <v>673.6067883253312</v>
+        <v>581.2195760789887</v>
       </c>
       <c r="D37" t="n">
-        <v>627.106411027198</v>
+        <v>431.1029366666529</v>
       </c>
       <c r="E37" t="n">
-        <v>479.1933174448048</v>
+        <v>283.1898430842598</v>
       </c>
       <c r="F37" t="n">
-        <v>479.1933174448048</v>
+        <v>283.1898430842598</v>
       </c>
       <c r="G37" t="n">
-        <v>310.7695858391669</v>
+        <v>191.7646305209602</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1429873225785</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="I37" t="n">
-        <v>39.13803200437192</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L37" t="n">
-        <v>367.6237836228988</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M37" t="n">
-        <v>601.0260351989639</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N37" t="n">
-        <v>834.3131193340864</v>
+        <v>834.3131193340863</v>
       </c>
       <c r="O37" t="n">
         <v>1033.775204627107</v>
@@ -7114,13 +7114,13 @@
         <v>1180.92879450643</v>
       </c>
       <c r="Q37" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="R37" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S37" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T37" t="n">
         <v>1196.707710199244</v>
@@ -7129,16 +7129,16 @@
         <v>1129.744802641464</v>
       </c>
       <c r="V37" t="n">
-        <v>1097.239595296537</v>
+        <v>875.0603144355774</v>
       </c>
       <c r="W37" t="n">
-        <v>1030.001706120536</v>
+        <v>807.8224252595764</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.191436083478</v>
+        <v>802.0121552225188</v>
       </c>
       <c r="Y37" t="n">
-        <v>1024.191436083478</v>
+        <v>581.2195760789887</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291595</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497074</v>
+        <v>809.0750081497059</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039165</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666319</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F38" t="n">
-        <v>320.572994737984</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926361</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K38" t="n">
         <v>222.8583967326098</v>
       </c>
       <c r="L38" t="n">
-        <v>517.9988210084227</v>
+        <v>425.325255053037</v>
       </c>
       <c r="M38" t="n">
-        <v>774.9516495211155</v>
+        <v>682.27808356573</v>
       </c>
       <c r="N38" t="n">
-        <v>1040.676051813888</v>
+        <v>948.0024858585025</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.019376029788</v>
+        <v>1185.583242639194</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458082</v>
+        <v>1607.155503017354</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077640002</v>
+        <v>1685.345526199274</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947294</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>345.8855715662149</v>
+        <v>504.4260152798286</v>
       </c>
       <c r="C39" t="n">
-        <v>171.4325422850879</v>
+        <v>504.4260152798286</v>
       </c>
       <c r="D39" t="n">
-        <v>171.4325422850879</v>
+        <v>438.7881048756216</v>
       </c>
       <c r="E39" t="n">
-        <v>171.4325422850879</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="F39" t="n">
-        <v>171.4325422850879</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280003</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116939</v>
+        <v>48.26364783116935</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077547</v>
+        <v>412.2597291502075</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840366</v>
+        <v>812.3316551933502</v>
       </c>
       <c r="M39" t="n">
-        <v>664.1609005257803</v>
+        <v>1046.069551643949</v>
       </c>
       <c r="N39" t="n">
-        <v>1087.504224741681</v>
+        <v>1300.402439620524</v>
       </c>
       <c r="O39" t="n">
-        <v>1510.847548957581</v>
+        <v>1510.847548957579</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.415236125859</v>
+        <v>1660.415236125857</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R39" t="n">
-        <v>1710.478077640002</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S39" t="n">
-        <v>1565.068286780951</v>
+        <v>1557.517394887463</v>
       </c>
       <c r="T39" t="n">
-        <v>1368.959364357278</v>
+        <v>1361.408472463789</v>
       </c>
       <c r="U39" t="n">
-        <v>1140.834946401897</v>
+        <v>1355.463335369368</v>
       </c>
       <c r="V39" t="n">
-        <v>1127.862119031113</v>
+        <v>1342.490507998585</v>
       </c>
       <c r="W39" t="n">
-        <v>873.6247623029119</v>
+        <v>1088.253151270383</v>
       </c>
       <c r="X39" t="n">
-        <v>721.8612073512368</v>
+        <v>880.4016510648505</v>
       </c>
       <c r="Y39" t="n">
-        <v>514.1009085862829</v>
+        <v>672.6413522998967</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.1754774754357</v>
+        <v>469.5513420590377</v>
       </c>
       <c r="C40" t="n">
-        <v>332.2392945475289</v>
+        <v>469.5513420590377</v>
       </c>
       <c r="D40" t="n">
-        <v>182.1226551351932</v>
+        <v>469.5513420590377</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155280003</v>
+        <v>321.6382484766445</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280003</v>
+        <v>321.6382484766445</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280003</v>
+        <v>153.2145168710066</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280003</v>
+        <v>153.2145168710066</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K40" t="n">
         <v>156.1085772674292</v>
@@ -7357,25 +7357,25 @@
         <v>1199.375232412102</v>
       </c>
       <c r="S40" t="n">
-        <v>1199.375232412102</v>
+        <v>1087.70699839215</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.707710199244</v>
+        <v>1085.039476179293</v>
       </c>
       <c r="U40" t="n">
-        <v>1129.744802641464</v>
+        <v>1018.076568621513</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.239595296537</v>
+        <v>985.571361276586</v>
       </c>
       <c r="W40" t="n">
-        <v>1030.001706120536</v>
+        <v>918.3334721005851</v>
       </c>
       <c r="X40" t="n">
-        <v>903.6165214492056</v>
+        <v>690.3439212025678</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.8239423056755</v>
+        <v>469.5513420590377</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291575</v>
+        <v>955.8582442291572</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497054</v>
+        <v>809.0750081497052</v>
       </c>
       <c r="D41" t="n">
         <v>672.9885904039145</v>
       </c>
       <c r="E41" t="n">
-        <v>509.37961866663</v>
+        <v>509.3796186666302</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379821</v>
+        <v>320.5729947379823</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J41" t="n">
-        <v>146.9611554043834</v>
+        <v>89.40148790926355</v>
       </c>
       <c r="K41" t="n">
-        <v>280.4180642277296</v>
+        <v>334.9040344199946</v>
       </c>
       <c r="L41" t="n">
-        <v>703.7613884436296</v>
+        <v>537.3708927404218</v>
       </c>
       <c r="M41" t="n">
-        <v>960.7142169563224</v>
+        <v>960.7142169563215</v>
       </c>
       <c r="N41" t="n">
-        <v>1226.438619249095</v>
+        <v>1226.438619249094</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.019376029787</v>
+        <v>1464.019376029786</v>
       </c>
       <c r="P41" t="n">
-        <v>1632.28805445808</v>
+        <v>1632.288054458079</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U41" t="n">
         <v>1678.998312839057</v>
@@ -7448,13 +7448,13 @@
         <v>1570.114706356446</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>654.0257870140085</v>
+        <v>505.0913773527573</v>
       </c>
       <c r="C42" t="n">
-        <v>479.5727577328815</v>
+        <v>330.6383480716303</v>
       </c>
       <c r="D42" t="n">
         <v>330.6383480716303</v>
       </c>
       <c r="E42" t="n">
-        <v>171.4008930661748</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="F42" t="n">
-        <v>171.4008930661748</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="G42" t="n">
-        <v>171.4008930661748</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="H42" t="n">
-        <v>72.59436272192366</v>
+        <v>72.59436272192364</v>
       </c>
       <c r="I42" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116935</v>
+        <v>173.0937728181741</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077547</v>
+        <v>537.0898541372122</v>
       </c>
       <c r="L42" t="n">
-        <v>538.5560181457284</v>
+        <v>812.3316551933493</v>
       </c>
       <c r="M42" t="n">
-        <v>772.2939145963269</v>
+        <v>1046.069551643948</v>
       </c>
       <c r="N42" t="n">
-        <v>1026.626802572902</v>
+        <v>1300.402439620523</v>
       </c>
       <c r="O42" t="n">
-        <v>1237.071911909957</v>
+        <v>1510.847548957578</v>
       </c>
       <c r="P42" t="n">
-        <v>1660.415236125857</v>
+        <v>1660.415236125856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R42" t="n">
-        <v>1710.47807764</v>
+        <v>1702.927185746512</v>
       </c>
       <c r="S42" t="n">
-        <v>1710.47807764</v>
+        <v>1557.517394887462</v>
       </c>
       <c r="T42" t="n">
-        <v>1514.369155216326</v>
+        <v>1361.408472463788</v>
       </c>
       <c r="U42" t="n">
-        <v>1286.244737260945</v>
+        <v>1133.284054508407</v>
       </c>
       <c r="V42" t="n">
-        <v>1273.271909890162</v>
+        <v>1120.311227137624</v>
       </c>
       <c r="W42" t="n">
-        <v>1019.034553161961</v>
+        <v>866.0738704094226</v>
       </c>
       <c r="X42" t="n">
-        <v>811.1830529564277</v>
+        <v>658.2223702038898</v>
       </c>
       <c r="Y42" t="n">
-        <v>811.1830529564277</v>
+        <v>505.0913773527573</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.1226551351931</v>
+        <v>579.832874361559</v>
       </c>
       <c r="C43" t="n">
-        <v>182.1226551351931</v>
+        <v>579.832874361559</v>
       </c>
       <c r="D43" t="n">
-        <v>182.1226551351931</v>
+        <v>486.5676716012637</v>
       </c>
       <c r="E43" t="n">
-        <v>34.2095615528</v>
+        <v>338.6545780188706</v>
       </c>
       <c r="F43" t="n">
-        <v>34.2095615528</v>
+        <v>191.7646305209602</v>
       </c>
       <c r="G43" t="n">
-        <v>34.2095615528</v>
+        <v>191.7646305209602</v>
       </c>
       <c r="H43" t="n">
-        <v>34.2095615528</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="I43" t="n">
-        <v>34.2095615528</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="J43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L43" t="n">
-        <v>367.6237836228988</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M43" t="n">
-        <v>601.0260351989639</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N43" t="n">
-        <v>834.3131193340864</v>
+        <v>834.3131193340863</v>
       </c>
       <c r="O43" t="n">
         <v>1033.775204627107</v>
@@ -7588,13 +7588,13 @@
         <v>1180.92879450643</v>
       </c>
       <c r="Q43" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="R43" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S43" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T43" t="n">
         <v>1196.707710199244</v>
@@ -7606,13 +7606,13 @@
         <v>652.8810335746176</v>
       </c>
       <c r="W43" t="n">
-        <v>408.7255043157809</v>
+        <v>585.6431443986166</v>
       </c>
       <c r="X43" t="n">
-        <v>402.9152342787232</v>
+        <v>579.832874361559</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.1226551351931</v>
+        <v>579.832874361559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,70 +7622,70 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291571</v>
+        <v>955.8582442291566</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497051</v>
+        <v>809.0750081497049</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039145</v>
+        <v>672.9885904039143</v>
       </c>
       <c r="E44" t="n">
-        <v>509.37961866663</v>
+        <v>509.3796186666299</v>
       </c>
       <c r="F44" t="n">
         <v>320.5729947379821</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H44" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I44" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J44" t="n">
-        <v>132.5132291058241</v>
+        <v>89.40148790926355</v>
       </c>
       <c r="K44" t="n">
-        <v>265.9701379291703</v>
+        <v>501.2945301232015</v>
       </c>
       <c r="L44" t="n">
-        <v>468.4369962495975</v>
+        <v>703.7613884436287</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3898247622903</v>
+        <v>960.7142169563215</v>
       </c>
       <c r="N44" t="n">
-        <v>991.1142270550629</v>
+        <v>1226.438619249094</v>
       </c>
       <c r="O44" t="n">
-        <v>1228.694983835755</v>
+        <v>1464.019376029786</v>
       </c>
       <c r="P44" t="n">
-        <v>1396.963662264048</v>
+        <v>1632.288054458079</v>
       </c>
       <c r="Q44" t="n">
-        <v>1685.345526199274</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839057</v>
+        <v>1678.998312839056</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356446</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X44" t="n">
         <v>1288.238854547171</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>494.8199812274662</v>
+        <v>511.976907173314</v>
       </c>
       <c r="C45" t="n">
-        <v>320.3669519463392</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D45" t="n">
-        <v>171.4325422850879</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E45" t="n">
-        <v>171.4325422850879</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F45" t="n">
-        <v>171.4325422850879</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="G45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="H45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116935</v>
+        <v>48.26364783116933</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077547</v>
+        <v>199.3829032121484</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840366</v>
+        <v>622.7262274280481</v>
       </c>
       <c r="M45" t="n">
-        <v>567.887146634635</v>
+        <v>1046.069551643948</v>
       </c>
       <c r="N45" t="n">
-        <v>991.2304708505349</v>
+        <v>1300.402439620523</v>
       </c>
       <c r="O45" t="n">
-        <v>1414.573795066435</v>
+        <v>1510.847548957578</v>
       </c>
       <c r="P45" t="n">
-        <v>1660.415236125857</v>
+        <v>1660.415236125856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R45" t="n">
-        <v>1702.927185746513</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.517394887463</v>
+        <v>1565.068286780948</v>
       </c>
       <c r="T45" t="n">
-        <v>1361.408472463789</v>
+        <v>1368.959364357275</v>
       </c>
       <c r="U45" t="n">
-        <v>1355.463335369368</v>
+        <v>1140.834946401894</v>
       </c>
       <c r="V45" t="n">
-        <v>1120.311227137625</v>
+        <v>1127.862119031111</v>
       </c>
       <c r="W45" t="n">
-        <v>866.0738704094238</v>
+        <v>1095.804043163869</v>
       </c>
       <c r="X45" t="n">
-        <v>663.0353182475342</v>
+        <v>887.9525429583359</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.0353182475342</v>
+        <v>680.1922441933821</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.0402952180287</v>
+        <v>375.5837567579833</v>
       </c>
       <c r="C46" t="n">
-        <v>190.1041122901218</v>
+        <v>206.6475738300764</v>
       </c>
       <c r="D46" t="n">
-        <v>39.9874728777861</v>
+        <v>56.53093441774064</v>
       </c>
       <c r="E46" t="n">
-        <v>39.9874728777861</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="F46" t="n">
-        <v>39.9874728777861</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="G46" t="n">
-        <v>39.9874728777861</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="H46" t="n">
-        <v>39.9874728777861</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L46" t="n">
-        <v>367.6237836228988</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M46" t="n">
-        <v>601.0260351989639</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N46" t="n">
-        <v>834.3131193340864</v>
+        <v>834.3131193340863</v>
       </c>
       <c r="O46" t="n">
         <v>1033.775204627107</v>
@@ -7825,31 +7825,31 @@
         <v>1180.92879450643</v>
       </c>
       <c r="Q46" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="R46" t="n">
-        <v>1199.375232412102</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S46" t="n">
-        <v>1199.375232412102</v>
+        <v>995.1261148085257</v>
       </c>
       <c r="T46" t="n">
-        <v>974.5284293382845</v>
+        <v>770.2793117347085</v>
       </c>
       <c r="U46" t="n">
-        <v>685.3862409195449</v>
+        <v>703.3164041769287</v>
       </c>
       <c r="V46" t="n">
-        <v>652.8810335746176</v>
+        <v>670.8111968320015</v>
       </c>
       <c r="W46" t="n">
-        <v>585.6431443986166</v>
+        <v>381.3940267950409</v>
       </c>
       <c r="X46" t="n">
-        <v>579.8328743615589</v>
+        <v>375.5837567579833</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.0402952180287</v>
+        <v>375.5837567579833</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>30.73978049030384</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>171.0241302356773</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>102.0759242279745</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>99.68798649800698</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>171.0241302356773</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>75.67287538557252</v>
       </c>
       <c r="P15" t="n">
-        <v>30.73978049030413</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>81.27290248456281</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>81.27290248456325</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>81.27290248456279</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>120.4910082414181</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>57.74483469310525</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>144.0190760328761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>75.67287538557179</v>
       </c>
       <c r="N24" t="n">
-        <v>99.68798649800704</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.0759242279744</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>103.7411739611586</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>417.2801953471978</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>40.33000427628923</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>191.564067697794</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>51.8357217638316</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>150.9774425883363</v>
       </c>
       <c r="L29" t="n">
-        <v>16.79430422292162</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.33000427628923</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.9267571042405</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>191.564067697794</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>245.0772104151172</v>
       </c>
       <c r="N32" t="n">
-        <v>207.5241857375771</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>88.378458194649</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>53.70643596744839</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>93.60966258119768</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>187.6389570052613</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>255.8622039897628</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628923</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>49.43814010544824</v>
       </c>
       <c r="L36" t="n">
-        <v>242.0537561006248</v>
+        <v>242.0537561006241</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>191.520634106365</v>
       </c>
       <c r="N36" t="n">
-        <v>25.91007231399152</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>215.0487018978237</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>93.60966258119765</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>187.6389570052613</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>255.8622039897637</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.33000427628923</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>218.5472932998595</v>
       </c>
       <c r="M39" t="n">
-        <v>97.24621605166186</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>170.7176123629545</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>215.0487018978237</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>58.14107827789883</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>113.1774118054392</v>
       </c>
       <c r="L41" t="n">
-        <v>223.1075413085584</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>168.0712077810171</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>206.4714827895878</v>
+        <v>92.45625795944972</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>276.5410475228504</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.54721332985906</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>281.2486195864562</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>49.43814010544824</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>242.0537561006241</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>191.520634106365</v>
       </c>
       <c r="N45" t="n">
-        <v>170.717612362954</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>215.0487018978232</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>97.24621605166107</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358284</v>
+        <v>45.56923785951874</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212894</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810813</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.0840802414992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,16 +23495,16 @@
         <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
-        <v>45.07034280972864</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>235.4669938441734</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014333</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200253</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810813</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
         <v>258.4496229586659</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3.205967076964535e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163855.2677434077</v>
+        <v>163855.2677434076</v>
       </c>
       <c r="C2" t="n">
         <v>163855.2677434077</v>
@@ -26326,22 +26326,22 @@
         <v>140608.0435663364</v>
       </c>
       <c r="G2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="H2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="I2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="J2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="K2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
@@ -26350,10 +26350,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224333</v>
+        <v>766266.5351224332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774892</v>
+        <v>92112.12268774907</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365101</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774894</v>
+        <v>92112.12268774907</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413096</v>
+        <v>83853.86775413102</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>161029.3996972912</v>
       </c>
       <c r="G4" t="n">
-        <v>228380.8004634456</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="H4" t="n">
-        <v>228380.8004634456</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="I4" t="n">
-        <v>228380.8004634456</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="J4" t="n">
         <v>226936.6235532809</v>
@@ -26448,7 +26448,7 @@
         <v>226936.6235532809</v>
       </c>
       <c r="M4" t="n">
-        <v>228109.4307260194</v>
+        <v>228109.4307260193</v>
       </c>
       <c r="N4" t="n">
         <v>228109.4307260194</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892903</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892903</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26491,25 +26491,25 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948883</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222713</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-332923.0633587021</v>
+        <v>-332927.4769365703</v>
       </c>
       <c r="C6" t="n">
-        <v>-332923.0633587021</v>
+        <v>-332927.4769365703</v>
       </c>
       <c r="D6" t="n">
-        <v>-332923.0633587021</v>
+        <v>-332927.4769365702</v>
       </c>
       <c r="E6" t="n">
-        <v>-834240.9094623171</v>
+        <v>-834535.9133423985</v>
       </c>
       <c r="F6" t="n">
-        <v>-67974.37433988381</v>
+        <v>-68269.37821996531</v>
       </c>
       <c r="G6" t="n">
-        <v>-213517.3049400622</v>
+        <v>-213517.3049400625</v>
       </c>
       <c r="H6" t="n">
-        <v>-121405.1822523133</v>
+        <v>-121405.1822523134</v>
       </c>
       <c r="I6" t="n">
         <v>-121405.1822523134</v>
       </c>
       <c r="J6" t="n">
-        <v>-247101.3177464231</v>
+        <v>-247101.3177464229</v>
       </c>
       <c r="K6" t="n">
         <v>-135217.236209913</v>
       </c>
       <c r="L6" t="n">
-        <v>-227329.3588976621</v>
+        <v>-227329.358897662</v>
       </c>
       <c r="M6" t="n">
         <v>-207375.1341195208</v>
       </c>
       <c r="N6" t="n">
-        <v>-123521.26636539</v>
+        <v>-123521.2663653898</v>
       </c>
       <c r="O6" t="n">
-        <v>-123521.2663653896</v>
+        <v>-123521.2663653898</v>
       </c>
       <c r="P6" t="n">
-        <v>-123521.2663653898</v>
+        <v>-123521.2663653897</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="N2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="P2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="F3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="G3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="H3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="I3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="J3" t="n">
         <v>694.0053563773453</v>
@@ -26799,37 +26799,37 @@
         <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="I4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100004</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100004</v>
+        <v>427.61951941</v>
       </c>
       <c r="O4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="P4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194099997</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926637</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100003</v>
+        <v>427.61951941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28169,70 +28169,70 @@
         <v>127.7883156973877</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>127.7883156973877</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
       <c r="E12" t="n">
-        <v>127.7883156973877</v>
+        <v>114.808576942921</v>
       </c>
       <c r="F12" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.475382974551607</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>127.7883156973877</v>
       </c>
-      <c r="H12" t="n">
-        <v>97.81846504080859</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.475382974551593</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>127.7883156973877</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>127.7883156973877</v>
       </c>
-      <c r="U12" t="n">
-        <v>16.99011190211161</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y12" t="n">
         <v>127.7883156973877</v>
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973877</v>
+        <v>112.4259876766434</v>
       </c>
       <c r="C13" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>127.7883156973877</v>
@@ -28263,13 +28263,13 @@
         <v>127.7883156973877</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6597438049107</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>4.879185747056169</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
         <v>127.7883156973877</v>
@@ -28409,22 +28409,22 @@
         <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7774744420669</v>
+        <v>16.99011190211269</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.475382974551593</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>127.7883156973877</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4525777442798</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
         <v>127.7883156973877</v>
@@ -28497,16 +28497,16 @@
         <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4525777442803</v>
       </c>
       <c r="J16" t="n">
-        <v>4.879185747056169</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S18" t="n">
-        <v>136.0202268327525</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
         <v>194.1478331994369</v>
@@ -28700,10 +28700,10 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>195.925766800683</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.60036895096069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.96741610549246</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H19" t="n">
         <v>151.1003325314225</v>
@@ -28743,7 +28743,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28776,16 +28776,16 @@
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9284690570739</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.5030243987926</v>
       </c>
       <c r="U21" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>180.2657722386886</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.69817385786283</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28968,19 +28968,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I22" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>242.9284690570739</v>
+        <v>102.3379398951838</v>
       </c>
       <c r="V22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29092,19 +29092,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>38.00095315743243</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>173.5968846415005</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>45.23839201067332</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29202,22 +29202,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.48833567689606</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J25" t="n">
-        <v>4.879185747056169</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V25" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W25" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>150.603118678992</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I26" t="n">
         <v>102.9155217242246</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="27">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J28" t="n">
         <v>4.879185747056169</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>43.3428220395817</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>43.34282203958472</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I29" t="n">
         <v>102.9155217242246</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="30">
@@ -29667,34 +29667,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J31" t="n">
-        <v>48.2220077866408</v>
+        <v>4.879185747056169</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>43.34282203958168</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I32" t="n">
         <v>102.9155217242246</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J34" t="n">
         <v>4.879185747056169</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>43.34282203958463</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>43.34282203958173</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="36">
@@ -30071,16 +30071,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
         <v>38.00095315743243</v>
@@ -30113,16 +30113,16 @@
         <v>7.475382974551593</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>189.4146526476093</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>131.5288609032119</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>102.5800994930605</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30156,13 +30156,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.22853385191502</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30195,22 +30195,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30302,22 +30302,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>82.46353426447384</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>38.00095315743243</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,16 +30356,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V39" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>55.52706580131911</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -30393,13 +30393,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.1003325314225</v>
       </c>
       <c r="I40" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>4.879185747056169</v>
@@ -30429,22 +30429,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>202.20662642754</v>
+        <v>91.65507474778813</v>
       </c>
       <c r="T40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X40" t="n">
-        <v>100.5883225644203</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30514,19 +30514,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="42">
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.94749036687239</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>54.08301285468318</v>
       </c>
     </row>
     <row r="43">
@@ -30621,25 +30621,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>56.28292228551999</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7394942895816</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J43" t="n">
-        <v>4.879185747056169</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -30678,13 +30678,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.80902437034271</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242246</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="45">
@@ -30776,19 +30776,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.8781852374304</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
         <v>97.81846504080859</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>7.475382974551593</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X45" t="n">
-        <v>4.764818563206802</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>124.3358035102779</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30873,7 +30873,7 @@
         <v>151.1003325314225</v>
       </c>
       <c r="I46" t="n">
-        <v>112.0947735532883</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
         <v>4.879185747056169</v>
@@ -30903,25 +30903,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W46" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H11" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I11" t="n">
         <v>107.5603678461813</v>
@@ -31762,37 +31762,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K11" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L11" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M11" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O11" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R11" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T11" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H12" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
@@ -31853,25 +31853,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P12" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H13" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I13" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K13" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L13" t="n">
         <v>186.0616983310673</v>
@@ -31941,13 +31941,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R13" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U13" t="n">
         <v>0.06826282193875534</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H14" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I14" t="n">
         <v>107.5603678461813</v>
@@ -31999,37 +31999,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K14" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L14" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M14" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N14" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O14" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P14" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R14" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S14" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T14" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H15" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I15" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J15" t="n">
         <v>141.0336734124943</v>
@@ -32090,25 +32090,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O15" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P15" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R15" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S15" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T15" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,16 +32148,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H16" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I16" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J16" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K16" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L16" t="n">
         <v>186.0616983310673</v>
@@ -32178,13 +32178,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R16" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S16" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T16" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U16" t="n">
         <v>0.06826282193875534</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H17" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I17" t="n">
         <v>107.5603678461813</v>
@@ -32236,37 +32236,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K17" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L17" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M17" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N17" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O17" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P17" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R17" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S17" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T17" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H18" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I18" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J18" t="n">
         <v>141.0336734124943</v>
@@ -32327,25 +32327,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O18" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P18" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R18" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S18" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T18" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,16 +32385,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H19" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I19" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J19" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K19" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L19" t="n">
         <v>186.0616983310673</v>
@@ -32415,13 +32415,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R19" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S19" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T19" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U19" t="n">
         <v>0.06826282193875534</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H20" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I20" t="n">
         <v>107.5603678461813</v>
@@ -32473,37 +32473,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K20" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L20" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M20" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N20" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O20" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P20" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R20" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S20" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T20" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H21" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I21" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J21" t="n">
         <v>141.0336734124943</v>
@@ -32564,25 +32564,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O21" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P21" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R21" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S21" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T21" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,16 +32622,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H22" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I22" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J22" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K22" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L22" t="n">
         <v>186.0616983310673</v>
@@ -32652,13 +32652,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R22" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S22" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T22" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U22" t="n">
         <v>0.06826282193875534</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H23" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I23" t="n">
         <v>107.5603678461813</v>
@@ -32710,37 +32710,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K23" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L23" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M23" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N23" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O23" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P23" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R23" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S23" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T23" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H24" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I24" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J24" t="n">
         <v>141.0336734124943</v>
@@ -32801,25 +32801,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O24" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P24" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R24" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S24" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T24" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,16 +32859,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H25" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I25" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J25" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K25" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L25" t="n">
         <v>186.0616983310673</v>
@@ -32889,13 +32889,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R25" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S25" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T25" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U25" t="n">
         <v>0.06826282193875534</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K11" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M11" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N11" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O11" t="n">
         <v>239.9805624047391</v>
@@ -35428,7 +35428,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.19604674582763</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K12" t="n">
-        <v>133.9473528908951</v>
+        <v>103.2075724005912</v>
       </c>
       <c r="L12" t="n">
+        <v>185.5657633093756</v>
+      </c>
+      <c r="M12" t="n">
+        <v>338.1748095316092</v>
+      </c>
+      <c r="N12" t="n">
         <v>356.5898935450529</v>
-      </c>
-      <c r="M12" t="n">
-        <v>236.0988853036348</v>
-      </c>
-      <c r="N12" t="n">
-        <v>256.9019070470459</v>
       </c>
       <c r="O12" t="n">
         <v>212.5708175121767</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>148.6399897770934</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K14" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M14" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N14" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O14" t="n">
         <v>239.9805624047391</v>
@@ -35665,7 +35665,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K15" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L15" t="n">
-        <v>356.5898935450529</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M15" t="n">
-        <v>236.0988853036348</v>
+        <v>236.0988853036347</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9019070470459</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O15" t="n">
-        <v>212.5708175121767</v>
+        <v>288.2436928977492</v>
       </c>
       <c r="P15" t="n">
-        <v>181.8182523774537</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>148.6399897770934</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K17" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L17" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M17" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N17" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O17" t="n">
         <v>239.9805624047391</v>
@@ -35902,7 +35902,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>95.46894923039044</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K18" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L18" t="n">
-        <v>185.5657633093757</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M18" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9019070470459</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O18" t="n">
-        <v>212.5708175121767</v>
+        <v>293.8437199967399</v>
       </c>
       <c r="P18" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>148.6399897770934</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K20" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L20" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M20" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N20" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O20" t="n">
         <v>239.9805624047391</v>
@@ -36139,7 +36139,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.19604674582763</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K21" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L21" t="n">
-        <v>266.8386657939384</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M21" t="n">
-        <v>356.5898935450529</v>
+        <v>236.0988853036347</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9019070470459</v>
+        <v>314.6467417401511</v>
       </c>
       <c r="O21" t="n">
-        <v>212.5708175121767</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="P21" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>148.6399897770934</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K23" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L23" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M23" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N23" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O23" t="n">
-        <v>239.9805624047393</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P23" t="n">
         <v>169.9683620487816</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K24" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L24" t="n">
-        <v>185.5657633093757</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M24" t="n">
-        <v>236.0988853036348</v>
+        <v>311.7717606892065</v>
       </c>
       <c r="N24" t="n">
-        <v>356.589893545053</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O24" t="n">
         <v>212.5708175121767</v>
       </c>
       <c r="P24" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.6444510099364</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>148.6399897770934</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>159.490594523243</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K26" t="n">
-        <v>134.8049584074204</v>
+        <v>458.9503709785852</v>
       </c>
       <c r="L26" t="n">
-        <v>204.5119781014416</v>
+        <v>622.1731926518921</v>
       </c>
       <c r="M26" t="n">
-        <v>709.0618451218152</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N26" t="n">
-        <v>705.755411576401</v>
+        <v>685.6886825116146</v>
       </c>
       <c r="O26" t="n">
-        <v>620.7807436674844</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P26" t="n">
         <v>491.7670702202643</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.9798213958783</v>
+        <v>291.294812055783</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K27" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L27" t="n">
-        <v>377.1298310071697</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M27" t="n">
-        <v>701.8039490536347</v>
+        <v>287.9346070674664</v>
       </c>
       <c r="N27" t="n">
-        <v>256.9019070470459</v>
+        <v>736.2442813905994</v>
       </c>
       <c r="O27" t="n">
         <v>606.4331367889063</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>123.1303189036658</v>
+        <v>166.4731409432475</v>
       </c>
       <c r="L28" t="n">
         <v>213.6517235913834</v>
@@ -36765,7 +36765,7 @@
         <v>235.6435193284066</v>
       </c>
       <c r="O28" t="n">
-        <v>244.8196758709189</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
         <v>148.6399897770934</v>
@@ -36832,28 +36832,28 @@
         <v>55.74942056208442</v>
       </c>
       <c r="K29" t="n">
-        <v>458.9503709785852</v>
+        <v>285.7824009957567</v>
       </c>
       <c r="L29" t="n">
-        <v>221.3062823243633</v>
+        <v>622.1731926518921</v>
       </c>
       <c r="M29" t="n">
-        <v>259.5483116289827</v>
+        <v>709.0618451218152</v>
       </c>
       <c r="N29" t="n">
         <v>705.755411576401</v>
       </c>
       <c r="O29" t="n">
-        <v>620.7807436674844</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P29" t="n">
-        <v>491.7670702202643</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q29" t="n">
         <v>291.294812055783</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.38641559669321</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K30" t="n">
-        <v>103.2075724005912</v>
+        <v>281.1343295048317</v>
       </c>
       <c r="L30" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M30" t="n">
-        <v>701.8039490536347</v>
+        <v>236.0988853036348</v>
       </c>
       <c r="N30" t="n">
-        <v>448.46597474484</v>
+        <v>736.2442813905994</v>
       </c>
       <c r="O30" t="n">
         <v>606.4331367889063</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.34282203958463</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>123.1303189036658</v>
+        <v>166.4731409432475</v>
       </c>
       <c r="L31" t="n">
         <v>213.6517235913834</v>
@@ -37075,10 +37075,10 @@
         <v>622.1731926518921</v>
       </c>
       <c r="M32" t="n">
-        <v>709.0618451218152</v>
+        <v>504.6255220440999</v>
       </c>
       <c r="N32" t="n">
-        <v>475.9326729019938</v>
+        <v>705.755411576401</v>
       </c>
       <c r="O32" t="n">
         <v>620.7807436674844</v>
@@ -37090,7 +37090,7 @@
         <v>291.294812055783</v>
       </c>
       <c r="R32" t="n">
-        <v>25.38641559669321</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.2870820862365</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K33" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L33" t="n">
-        <v>185.5657633093757</v>
+        <v>556.4061086128348</v>
       </c>
       <c r="M33" t="n">
         <v>701.8039490536347</v>
@@ -37160,13 +37160,13 @@
         <v>736.2442813905994</v>
       </c>
       <c r="O33" t="n">
-        <v>300.9492757068257</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0784718871496</v>
+        <v>204.784907854598</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.6458145178111</v>
+        <v>50.56852678196205</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>201.4768538313342</v>
       </c>
       <c r="P34" t="n">
-        <v>191.9828118166781</v>
+        <v>148.6399897770934</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.63276556128474</v>
+        <v>61.97558760086648</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>55.74942056208442</v>
       </c>
       <c r="K35" t="n">
-        <v>228.4146209886181</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L35" t="n">
         <v>204.5119781014416</v>
@@ -37318,16 +37318,16 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O35" t="n">
-        <v>427.6195194100004</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
-        <v>169.9683620487816</v>
+        <v>425.8305660385444</v>
       </c>
       <c r="Q35" t="n">
         <v>78.9798213958783</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>25.38641559669321</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K36" t="n">
-        <v>103.2075724005912</v>
+        <v>152.6457125060395</v>
       </c>
       <c r="L36" t="n">
-        <v>427.6195194100004</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="M36" t="n">
-        <v>236.0988853036348</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="N36" t="n">
-        <v>282.8119793610375</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O36" t="n">
-        <v>427.6195194100004</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P36" t="n">
         <v>151.0784718871496</v>
@@ -37546,7 +37546,7 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L38" t="n">
-        <v>298.1216406826393</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M38" t="n">
         <v>259.5483116289827</v>
@@ -37555,16 +37555,16 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O38" t="n">
-        <v>427.6195194100004</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P38" t="n">
-        <v>169.9683620487816</v>
+        <v>425.8305660385453</v>
       </c>
       <c r="Q38" t="n">
         <v>78.9798213958783</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.38641559669321</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K39" t="n">
-        <v>103.2075724005912</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L39" t="n">
-        <v>185.5657633093757</v>
+        <v>404.1130566092351</v>
       </c>
       <c r="M39" t="n">
-        <v>333.3451013552967</v>
+        <v>236.0988853036348</v>
       </c>
       <c r="N39" t="n">
-        <v>427.6195194100004</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O39" t="n">
-        <v>427.6195194100004</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P39" t="n">
         <v>151.0784718871496</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.8904988399833</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K41" t="n">
-        <v>134.8049584074204</v>
+        <v>247.9823702128597</v>
       </c>
       <c r="L41" t="n">
-        <v>427.61951941</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M41" t="n">
-        <v>259.5483116289827</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="N41" t="n">
         <v>268.4084871644168</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K42" t="n">
-        <v>103.2075724005912</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L42" t="n">
-        <v>392.0372460989634</v>
+        <v>278.0220212688254</v>
       </c>
       <c r="M42" t="n">
         <v>236.0988853036348</v>
@@ -37874,7 +37874,7 @@
         <v>212.5708175121767</v>
       </c>
       <c r="P42" t="n">
-        <v>427.61951941</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q42" t="n">
         <v>50.56852678196205</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>99.29663389194349</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K44" t="n">
-        <v>134.8049584074204</v>
+        <v>416.0535779938767</v>
       </c>
       <c r="L44" t="n">
         <v>204.5119781014416</v>
@@ -38035,10 +38035,10 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.294812055783</v>
+        <v>78.9798213958783</v>
       </c>
       <c r="R44" t="n">
-        <v>25.38641559669321</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K45" t="n">
-        <v>103.2075724005912</v>
+        <v>152.6457125060395</v>
       </c>
       <c r="L45" t="n">
-        <v>185.5657633093757</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="M45" t="n">
-        <v>236.0988853036348</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="N45" t="n">
-        <v>427.61951941</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O45" t="n">
-        <v>427.61951941</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P45" t="n">
-        <v>248.3246879388107</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q45" t="n">
         <v>50.56852678196205</v>
